--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.02710690258964</v>
+        <v>5.709516000000001</v>
       </c>
       <c r="H2">
-        <v>5.02710690258964</v>
+        <v>17.128548</v>
       </c>
       <c r="I2">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="J2">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N2">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O2">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P2">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q2">
-        <v>54.60867220038909</v>
+        <v>225.034286962884</v>
       </c>
       <c r="R2">
-        <v>54.60867220038909</v>
+        <v>2025.308582665956</v>
       </c>
       <c r="S2">
-        <v>0.1653530932223012</v>
+        <v>0.2885708607024465</v>
       </c>
       <c r="T2">
-        <v>0.1653530932223012</v>
+        <v>0.2885708607024465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.02710690258964</v>
+        <v>5.709516000000001</v>
       </c>
       <c r="H3">
-        <v>5.02710690258964</v>
+        <v>17.128548</v>
       </c>
       <c r="I3">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="J3">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N3">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P3">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q3">
-        <v>56.5996491971099</v>
+        <v>65.13369796037601</v>
       </c>
       <c r="R3">
-        <v>56.5996491971099</v>
+        <v>586.2032816433841</v>
       </c>
       <c r="S3">
-        <v>0.1713816998826897</v>
+        <v>0.08352366003789881</v>
       </c>
       <c r="T3">
-        <v>0.1713816998826897</v>
+        <v>0.08352366003789879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.02710690258964</v>
+        <v>5.709516000000001</v>
       </c>
       <c r="H4">
-        <v>5.02710690258964</v>
+        <v>17.128548</v>
       </c>
       <c r="I4">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="J4">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.94187919813623</v>
+        <v>3.095153333333334</v>
       </c>
       <c r="N4">
-        <v>2.94187919813623</v>
+        <v>9.28546</v>
       </c>
       <c r="O4">
-        <v>0.1173765004142755</v>
+        <v>0.05740591946574151</v>
       </c>
       <c r="P4">
-        <v>0.1173765004142755</v>
+        <v>0.0574059194657415</v>
       </c>
       <c r="Q4">
-        <v>14.78914122353552</v>
+        <v>17.67182747912</v>
       </c>
       <c r="R4">
-        <v>14.78914122353552</v>
+        <v>159.04644731208</v>
       </c>
       <c r="S4">
-        <v>0.04478098713771002</v>
+        <v>0.0226613221241077</v>
       </c>
       <c r="T4">
-        <v>0.04478098713771002</v>
+        <v>0.02266132212410769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.0988685897999</v>
+        <v>3.281282666666666</v>
       </c>
       <c r="H5">
-        <v>3.0988685897999</v>
+        <v>9.843847999999999</v>
       </c>
       <c r="I5">
-        <v>0.2351784616511894</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="J5">
-        <v>0.2351784616511894</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N5">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O5">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P5">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q5">
-        <v>33.66252245904914</v>
+        <v>129.3281436144507</v>
       </c>
       <c r="R5">
-        <v>33.66252245904914</v>
+        <v>1163.953292530056</v>
       </c>
       <c r="S5">
-        <v>0.1019289059774887</v>
+        <v>0.165842877632363</v>
       </c>
       <c r="T5">
-        <v>0.1019289059774887</v>
+        <v>0.165842877632363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.0988685897999</v>
+        <v>3.281282666666666</v>
       </c>
       <c r="H6">
-        <v>3.0988685897999</v>
+        <v>9.843847999999999</v>
       </c>
       <c r="I6">
-        <v>0.2351784616511894</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="J6">
-        <v>0.2351784616511894</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N6">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P6">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q6">
-        <v>34.88982400598343</v>
+        <v>37.43260797119822</v>
       </c>
       <c r="R6">
-        <v>34.88982400598343</v>
+        <v>336.893471740784</v>
       </c>
       <c r="S6">
-        <v>0.1056451308722711</v>
+        <v>0.04800139590447187</v>
       </c>
       <c r="T6">
-        <v>0.1056451308722711</v>
+        <v>0.04800139590447187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.0988685897999</v>
+        <v>3.281282666666666</v>
       </c>
       <c r="H7">
-        <v>3.0988685897999</v>
+        <v>9.843847999999999</v>
       </c>
       <c r="I7">
-        <v>0.2351784616511894</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="J7">
-        <v>0.2351784616511894</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.94187919813623</v>
+        <v>3.095153333333334</v>
       </c>
       <c r="N7">
-        <v>2.94187919813623</v>
+        <v>9.28546</v>
       </c>
       <c r="O7">
-        <v>0.1173765004142755</v>
+        <v>0.05740591946574151</v>
       </c>
       <c r="P7">
-        <v>0.1173765004142755</v>
+        <v>0.0574059194657415</v>
       </c>
       <c r="Q7">
-        <v>9.11649704209008</v>
+        <v>10.15607298334222</v>
       </c>
       <c r="R7">
-        <v>9.11649704209008</v>
+        <v>91.40465685008</v>
       </c>
       <c r="S7">
-        <v>0.0276044248014295</v>
+        <v>0.01302355637318197</v>
       </c>
       <c r="T7">
-        <v>0.0276044248014295</v>
+        <v>0.01302355637318197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.24838043971577</v>
+        <v>1.388848333333333</v>
       </c>
       <c r="H8">
-        <v>1.24838043971577</v>
+        <v>4.166545</v>
       </c>
       <c r="I8">
-        <v>0.09474173649510836</v>
+        <v>0.09602495105292475</v>
       </c>
       <c r="J8">
-        <v>0.09474173649510836</v>
+        <v>0.09602495105292475</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N8">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O8">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P8">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q8">
-        <v>13.56096051561945</v>
+        <v>54.73992793631834</v>
       </c>
       <c r="R8">
-        <v>13.56096051561945</v>
+        <v>492.659351426865</v>
       </c>
       <c r="S8">
-        <v>0.04106210017512917</v>
+        <v>0.07019529482624416</v>
       </c>
       <c r="T8">
-        <v>0.04106210017512917</v>
+        <v>0.07019529482624416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.24838043971577</v>
+        <v>1.388848333333333</v>
       </c>
       <c r="H9">
-        <v>1.24838043971577</v>
+        <v>4.166545</v>
       </c>
       <c r="I9">
-        <v>0.09474173649510836</v>
+        <v>0.09602495105292475</v>
       </c>
       <c r="J9">
-        <v>0.09474173649510836</v>
+        <v>0.09602495105292475</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N9">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O9">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P9">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q9">
-        <v>14.05537943027391</v>
+        <v>15.84386975290111</v>
       </c>
       <c r="R9">
-        <v>14.05537943027391</v>
+        <v>142.59482777611</v>
       </c>
       <c r="S9">
-        <v>0.04255918284701192</v>
+        <v>0.02031725561983462</v>
       </c>
       <c r="T9">
-        <v>0.04255918284701192</v>
+        <v>0.02031725561983462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24838043971577</v>
+        <v>1.388848333333333</v>
       </c>
       <c r="H10">
-        <v>1.24838043971577</v>
+        <v>4.166545</v>
       </c>
       <c r="I10">
-        <v>0.09474173649510836</v>
+        <v>0.09602495105292475</v>
       </c>
       <c r="J10">
-        <v>0.09474173649510836</v>
+        <v>0.09602495105292475</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.94187919813623</v>
+        <v>3.095153333333334</v>
       </c>
       <c r="N10">
-        <v>2.94187919813623</v>
+        <v>9.28546</v>
       </c>
       <c r="O10">
-        <v>0.1173765004142755</v>
+        <v>0.05740591946574151</v>
       </c>
       <c r="P10">
-        <v>0.1173765004142755</v>
+        <v>0.0574059194657415</v>
       </c>
       <c r="Q10">
-        <v>3.672584446959984</v>
+        <v>4.298698548411112</v>
       </c>
       <c r="R10">
-        <v>3.672584446959984</v>
+        <v>38.68828693570001</v>
       </c>
       <c r="S10">
-        <v>0.01112045347296726</v>
+        <v>0.005512400606845969</v>
       </c>
       <c r="T10">
-        <v>0.01112045347296726</v>
+        <v>0.005512400606845967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.80231240751527</v>
+        <v>4.083764</v>
       </c>
       <c r="H11">
-        <v>3.80231240751527</v>
+        <v>12.251292</v>
       </c>
       <c r="I11">
-        <v>0.2885640216110013</v>
+        <v>0.2823513761726055</v>
       </c>
       <c r="J11">
-        <v>0.2885640216110013</v>
+        <v>0.2823513761726055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N11">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O11">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P11">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q11">
-        <v>41.30392209453738</v>
+        <v>160.957061835836</v>
       </c>
       <c r="R11">
-        <v>41.30392209453738</v>
+        <v>1448.613556522524</v>
       </c>
       <c r="S11">
-        <v>0.1250667889430215</v>
+        <v>0.2064019598834061</v>
       </c>
       <c r="T11">
-        <v>0.1250667889430215</v>
+        <v>0.2064019598834061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.80231240751527</v>
+        <v>4.083764</v>
       </c>
       <c r="H12">
-        <v>3.80231240751527</v>
+        <v>12.251292</v>
       </c>
       <c r="I12">
-        <v>0.2885640216110013</v>
+        <v>0.2823513761726055</v>
       </c>
       <c r="J12">
-        <v>0.2885640216110013</v>
+        <v>0.2823513761726055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N12">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O12">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P12">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q12">
-        <v>42.80982134919802</v>
+        <v>46.58725028837068</v>
       </c>
       <c r="R12">
-        <v>42.80982134919802</v>
+        <v>419.2852525953361</v>
       </c>
       <c r="S12">
-        <v>0.1296265976658111</v>
+        <v>0.05974077592759346</v>
       </c>
       <c r="T12">
-        <v>0.1296265976658111</v>
+        <v>0.05974077592759346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.80231240751527</v>
+        <v>4.083764</v>
       </c>
       <c r="H13">
-        <v>3.80231240751527</v>
+        <v>12.251292</v>
       </c>
       <c r="I13">
-        <v>0.2885640216110013</v>
+        <v>0.2823513761726055</v>
       </c>
       <c r="J13">
-        <v>0.2885640216110013</v>
+        <v>0.2823513761726055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94187919813623</v>
+        <v>3.095153333333334</v>
       </c>
       <c r="N13">
-        <v>2.94187919813623</v>
+        <v>9.28546</v>
       </c>
       <c r="O13">
-        <v>0.1173765004142755</v>
+        <v>0.05740591946574151</v>
       </c>
       <c r="P13">
-        <v>0.1173765004142755</v>
+        <v>0.0574059194657415</v>
       </c>
       <c r="Q13">
-        <v>11.18594377648446</v>
+        <v>12.63987575714667</v>
       </c>
       <c r="R13">
-        <v>11.18594377648446</v>
+        <v>113.75888181432</v>
       </c>
       <c r="S13">
-        <v>0.03387063500216869</v>
+        <v>0.01620864036160588</v>
       </c>
       <c r="T13">
-        <v>0.03387063500216869</v>
+        <v>0.01620864036160587</v>
       </c>
     </row>
   </sheetData>
